--- a/data/raw/sale_table.xlsx
+++ b/data/raw/sale_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://musigma-my.sharepoint.com/personal/vignesh_nehru_mu-sigma_com/Documents/Documents/walmart/re_greco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://musigma-my.sharepoint.com/personal/vignesh_nehru_mu-sigma_com/Documents/Documents/walmart/re_greco/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_80F21DDB97D9AEEF8955B706E8AB639761B4F9F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80C0AE64-95C3-4157-8577-5DF369BBC9A5}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_80F21DDB97D9AEEF8955B706E8AB639761B4F9F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C1CC53E-0B9D-4BD6-BF1B-DB2720FC3F82}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,6 +195,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -223,20 +237,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -251,8 +251,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB50E288-98E9-48AD-B266-95208C2D30D9}" name="Table1" displayName="Table1" ref="A1:C38" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:C38" xr:uid="{CB50E288-98E9-48AD-B266-95208C2D30D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB50E288-98E9-48AD-B266-95208C2D30D9}" name="Table1" displayName="Table1" ref="A1:C38" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:C38" xr:uid="{CB50E288-98E9-48AD-B266-95208C2D30D9}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1001"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EBB4AA18-D408-44B5-85D8-53A89AA2F2E3}" name="entrp_ptnt_id"/>
     <tableColumn id="2" xr3:uid="{3C526B9F-D047-4794-94A5-E77767938760}" name="store_nbr"/>
@@ -573,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1004</v>
       </c>
@@ -584,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1003</v>
       </c>
@@ -606,7 +612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1006</v>
       </c>
@@ -617,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1008</v>
       </c>
@@ -628,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -650,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -661,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -683,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1002</v>
       </c>
@@ -694,7 +700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1003</v>
       </c>
@@ -705,7 +711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -716,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1007</v>
       </c>
@@ -727,7 +733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1002</v>
       </c>
@@ -738,7 +744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1005</v>
       </c>
@@ -760,7 +766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1007</v>
       </c>
@@ -782,7 +788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1002</v>
       </c>
@@ -804,7 +810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1005</v>
       </c>
@@ -815,7 +821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1005</v>
       </c>
@@ -837,7 +843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1008</v>
       </c>
@@ -848,7 +854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1008</v>
       </c>
@@ -870,7 +876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1007</v>
       </c>
@@ -881,7 +887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1005</v>
       </c>
@@ -892,7 +898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1007</v>
       </c>
@@ -903,7 +909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1002</v>
       </c>
@@ -914,7 +920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1005</v>
       </c>
@@ -925,7 +931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1004</v>
       </c>
@@ -936,7 +942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1005</v>
       </c>
@@ -958,7 +964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1003</v>
       </c>
@@ -969,7 +975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1005</v>
       </c>
